--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="41" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Thiết bị lỗi module GSM</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>Thiết bị oxi hóa mạch</t>
   </si>
   <si>
@@ -307,6 +304,15 @@
   </si>
   <si>
     <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa thiết bị</t>
   </si>
 </sst>
 </file>
@@ -712,6 +718,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -729,30 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1096,43 +1102,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1177,58 +1183,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1253,23 +1259,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,7 +1285,9 @@
       <c r="B6" s="61">
         <v>44656</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44658</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1304,16 +1312,24 @@
         <v>75</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1328,7 +1344,9 @@
       <c r="B7" s="61">
         <v>44656</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44658</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1350,15 +1368,25 @@
       <c r="L7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1399,9 @@
       <c r="B8" s="61">
         <v>44656</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44658</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1395,15 +1425,25 @@
       <c r="L8" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1472,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1461,7 +1501,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1490,7 +1530,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1559,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1550,7 +1590,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1579,7 +1619,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1648,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1677,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1755,7 +1795,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1787,7 +1827,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1968,7 +2008,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2224,7 +2264,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2288,7 +2328,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2406,7 +2446,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -2867,13 +2907,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2885,6 +2918,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2895,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2928,43 +2968,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3009,58 +3049,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3085,23 +3125,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3111,7 +3151,9 @@
       <c r="B6" s="61">
         <v>44656</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44658</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
@@ -3127,35 +3169,35 @@
         <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>82</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>83</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3170,7 +3212,9 @@
       <c r="B7" s="61">
         <v>44656</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44658</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>68</v>
       </c>
@@ -3184,19 +3228,19 @@
       <c r="H7" s="48"/>
       <c r="I7" s="53"/>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="64"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>80</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>18</v>
@@ -3206,7 +3250,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3219,7 +3263,9 @@
       <c r="B8" s="61">
         <v>44656</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44658</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>68</v>
       </c>
@@ -3235,21 +3281,21 @@
         <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>18</v>
@@ -3259,7 +3305,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3272,7 +3318,9 @@
       <c r="B9" s="61">
         <v>44656</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44658</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>68</v>
       </c>
@@ -3286,19 +3334,19 @@
       <c r="H9" s="48"/>
       <c r="I9" s="53"/>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>80</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>18</v>
@@ -3308,7 +3356,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3337,7 +3385,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3366,7 +3414,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3395,7 +3443,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3426,7 +3474,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3455,7 +3503,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3532,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3513,7 +3561,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4743,13 +4791,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4761,6 +4802,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4771,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4804,43 +4852,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4885,58 +4933,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -4961,23 +5009,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4987,7 +5035,9 @@
       <c r="B6" s="61">
         <v>44652</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44658</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -5008,16 +5058,24 @@
       <c r="K6" s="64"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5048,7 +5106,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5077,7 +5135,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5106,7 +5164,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5135,7 +5193,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5164,7 +5222,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5193,7 +5251,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5224,7 +5282,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5253,7 +5311,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5282,7 +5340,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5311,7 +5369,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5461,7 +5519,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5674,7 +5732,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -5962,7 +6020,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6080,7 +6138,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6541,13 +6599,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6559,6 +6610,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6602,43 +6660,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6683,58 +6741,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6759,23 +6817,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6801,7 +6859,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6832,7 +6890,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6861,7 +6919,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6890,7 +6948,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6919,7 +6977,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6948,7 +7006,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6977,7 +7035,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7008,7 +7066,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7037,7 +7095,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7066,7 +7124,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7095,7 +7153,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8326,13 +8384,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8344,6 +8395,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
